--- a/results/compare.xlsx
+++ b/results/compare.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mollie\epon-desl\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE83915-68D5-4E77-A79F-322AA6C24C8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA4C2E3B-B4E7-4217-AE00-0C3357443604}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-68" yWindow="-68" windowWidth="20656" windowHeight="13215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="compare1" sheetId="1" r:id="rId1"/>
@@ -3611,7 +3611,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>compare2!$B$22:$S$22</c15:sqref>
@@ -3680,7 +3680,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>compare2!$B$25:$S$25</c15:sqref>
@@ -10104,7 +10104,7 @@
                 </c:marker>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>compare3!$C$6:$T$6</c15:sqref>
@@ -10218,7 +10218,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>compare3!$C$2:$T$2</c15:sqref>
@@ -10287,7 +10287,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>compare3!$C$15:$T$15</c15:sqref>
@@ -10401,7 +10401,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>compare3!$C$2:$T$2</c15:sqref>
@@ -10470,7 +10470,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>compare3!$C$16:$T$16</c15:sqref>
@@ -11397,7 +11397,7 @@
                 </c:marker>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>compare3!$C$6:$T$6</c15:sqref>
@@ -11511,7 +11511,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>compare3!$C$2:$T$2</c15:sqref>
@@ -11580,7 +11580,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>compare3!$C$14:$T$14</c15:sqref>
@@ -11694,7 +11694,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>compare3!$C$2:$T$2</c15:sqref>
@@ -11763,7 +11763,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>compare3!$C$16:$T$16</c15:sqref>
@@ -12690,7 +12690,7 @@
                 </c:marker>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>compare3!$C$5:$T$5</c15:sqref>
@@ -12804,7 +12804,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>compare3!$C$2:$T$2</c15:sqref>
@@ -12873,7 +12873,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>compare3!$C$14:$T$14</c15:sqref>
@@ -12987,7 +12987,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>compare3!$C$2:$T$2</c15:sqref>
@@ -13056,7 +13056,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>compare3!$C$15:$T$15</c15:sqref>
@@ -15003,6 +15003,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400"/>
+              <a:t>Utilization Comparison</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15016,7 +15041,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -15034,7 +15059,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12146878403125409"/>
+          <c:y val="9.5102512557826743E-2"/>
+          <c:w val="0.84898537763331505"/>
+          <c:h val="0.78184035579938016"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -15042,7 +15077,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>1-sch/sent</c:v>
+            <c:v>tdma-data</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -15068,6 +15103,68 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>data2!$V$4:$AM$5</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>data2!$C$25:$T$25</c:f>
@@ -15139,110 +15236,10 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>sch/sent</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>data2!$C$24:$T$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>0.68640083831848542</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.3455924093303015</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.22971176623460846</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.15830204752741134</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.1387653699937787</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.11409770284254221</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9.8426594928769609E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.8874451526798098E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7.751900387461956E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7.2124581885494934E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6.8064048722581191E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6.7831619909225871E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6.784893357629268E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6.7881000699750241E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6.7925694602296333E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>6.7915590239864335E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>6.7964522954151549E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>6.7980746017521146E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0C5A-450B-8F9C-E2584487E542}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>voice sch/sent</c:v>
+            <c:v>tdma-voice</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -15268,6 +15265,68 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>data2!$V$4:$AM$5</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>data2!$C$30:$T$30</c:f>
@@ -15275,58 +15334,58 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>0.77495796629863378</c:v>
+                  <c:v>0.22504203370136622</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.38756263961030529</c:v>
+                  <c:v>0.61243736038969465</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.25827858121796066</c:v>
+                  <c:v>0.74172141878203934</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.19377288165244946</c:v>
+                  <c:v>0.80622711834755056</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.15498517366156936</c:v>
+                  <c:v>0.84501482633843061</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.12916446374856652</c:v>
+                  <c:v>0.87083553625143351</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.11070734084684812</c:v>
+                  <c:v>0.88929265915315192</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.687000418157167E-2</c:v>
+                  <c:v>0.90312999581842834</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.6128522941035082E-2</c:v>
+                  <c:v>0.91387147705896488</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.7496771894949329E-2</c:v>
+                  <c:v>0.9225032281050507</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.0444941718689272E-2</c:v>
+                  <c:v>0.92955505828131069</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.7847309235933476E-2</c:v>
+                  <c:v>0.93215269076406648</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.7859986039761552E-2</c:v>
+                  <c:v>0.93214001396023849</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.7835570616660679E-2</c:v>
+                  <c:v>0.93216442938333932</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.7934340160993298E-2</c:v>
+                  <c:v>0.93206565983900669</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.7967079526971438E-2</c:v>
+                  <c:v>0.93203292047302855</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.797930037335434E-2</c:v>
+                  <c:v>0.93202069962664569</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.800424448576331E-2</c:v>
+                  <c:v>0.93199575551423663</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15342,7 +15401,7 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>video sch/sent</c:v>
+            <c:v>tdma-video</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -15368,6 +15427,68 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>data2!$V$4:$AM$5</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>data2!$C$31:$T$31</c:f>
@@ -15375,58 +15496,58 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>0.88013985946934659</c:v>
+                  <c:v>0.11986014053065341</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.43545900889696726</c:v>
+                  <c:v>0.5645409911030328</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.28952413458929688</c:v>
+                  <c:v>0.71047586541070307</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.2146550587219502</c:v>
+                  <c:v>0.78534494127804977</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.14408597301308104</c:v>
+                  <c:v>0.85591402698691899</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.12483382700625892</c:v>
+                  <c:v>0.87516617299374111</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.1092821817620882</c:v>
+                  <c:v>0.89071781823791185</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.6904062258270154E-2</c:v>
+                  <c:v>0.9030959377417298</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.6525105151240164E-2</c:v>
+                  <c:v>0.91347489484875988</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.888175214423522E-2</c:v>
+                  <c:v>0.92111824785576479</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.2573207190622671E-2</c:v>
+                  <c:v>0.92742679280937734</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.8219551898795652E-2</c:v>
+                  <c:v>0.93178044810120431</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.7822634393482115E-2</c:v>
+                  <c:v>0.93217736560651787</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.7875691820190917E-2</c:v>
+                  <c:v>0.93212430817980907</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.7918280076795637E-2</c:v>
+                  <c:v>0.93208171992320432</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.797269649291908E-2</c:v>
+                  <c:v>0.93202730350708096</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.7976443556537008E-2</c:v>
+                  <c:v>0.93202355644346302</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.8012987373084643E-2</c:v>
+                  <c:v>0.93198701262691541</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15468,6 +15589,68 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>data2!$V$4:$AM$5</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>data2!$C$56:$T$56</c:f>
@@ -15475,58 +15658,58 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>9.4682087681538615E-2</c:v>
+                  <c:v>0.90531791231846137</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.3919373731738042E-2</c:v>
+                  <c:v>0.92608062626826193</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.3630700319795406E-2</c:v>
+                  <c:v>0.92636929968020465</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.100378850199901E-2</c:v>
+                  <c:v>0.92899621149800105</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.2445654657672262E-2</c:v>
+                  <c:v>0.92755434534232772</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.0608521642019154E-2</c:v>
+                  <c:v>0.92939147835798086</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.4714557533561798E-2</c:v>
+                  <c:v>0.93528544246643819</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.4401813621263987E-2</c:v>
+                  <c:v>0.93559818637873604</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.3698637629296395E-2</c:v>
+                  <c:v>0.9363013623707036</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.3943152139054008E-2</c:v>
+                  <c:v>0.93605684786094601</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.8737463417570532E-2</c:v>
+                  <c:v>0.93126253658242941</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.7807417597854719E-2</c:v>
+                  <c:v>0.93219258240214531</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.7838671604109238E-2</c:v>
+                  <c:v>0.93216132839589072</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.7928160218587538E-2</c:v>
+                  <c:v>0.9320718397814125</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.7952647614567097E-2</c:v>
+                  <c:v>0.9320473523854329</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.7956548759472199E-2</c:v>
+                  <c:v>0.93204345124052779</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.7948695788993541E-2</c:v>
+                  <c:v>0.93205130421100646</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.7971819210626866E-2</c:v>
+                  <c:v>0.93202818078937311</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15568,6 +15751,68 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>data2!$V$4:$AM$5</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>data2!$C$57:$T$57</c:f>
@@ -15575,58 +15820,58 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>0.10172276825182669</c:v>
+                  <c:v>0.89827723174817331</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.3235551238595537E-2</c:v>
+                  <c:v>0.9167644487614045</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.6992727816123097E-2</c:v>
+                  <c:v>0.9230072721838769</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.3868911826053332E-2</c:v>
+                  <c:v>0.92613108817394663</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.204461402839045E-2</c:v>
+                  <c:v>0.92795538597160954</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.0800568916731782E-2</c:v>
+                  <c:v>0.92919943108326819</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.9841415313355595E-2</c:v>
+                  <c:v>0.93015858468664436</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.9045106968931083E-2</c:v>
+                  <c:v>0.93095489303106893</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.8480673161861072E-2</c:v>
+                  <c:v>0.93151932683813898</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.7853272103957557E-2</c:v>
+                  <c:v>0.93214672789604247</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.6967117264425211E-2</c:v>
+                  <c:v>0.93303288273557483</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.7808364329648624E-2</c:v>
+                  <c:v>0.93219163567035135</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.7840439581297693E-2</c:v>
+                  <c:v>0.93215956041870229</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.7841977809870585E-2</c:v>
+                  <c:v>0.93215802219012944</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.7940972826379897E-2</c:v>
+                  <c:v>0.9320590271736201</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.7976501656284924E-2</c:v>
+                  <c:v>0.93202349834371512</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.7978467590494751E-2</c:v>
+                  <c:v>0.93202153240950525</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.7973862590317888E-2</c:v>
+                  <c:v>0.9320261374096821</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15674,6 +15919,68 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>data2!$V$4:$AM$5</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>data2!$C$58:$T$58</c:f>
@@ -15681,58 +15988,58 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>0.10616933479292211</c:v>
+                  <c:v>0.89383066520707788</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.4817906253920189E-2</c:v>
+                  <c:v>0.91518209374607984</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.7979443370946214E-2</c:v>
+                  <c:v>0.9220205566290538</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.4023642913717907E-2</c:v>
+                  <c:v>0.92597635708628212</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.9820062960827184E-2</c:v>
+                  <c:v>0.93017993703917279</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.0328377140888673E-2</c:v>
+                  <c:v>0.92967162285911131</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0691536212865697E-2</c:v>
+                  <c:v>0.92930846378713428</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.8648042858172303E-2</c:v>
+                  <c:v>0.93135195714182772</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.7809974850934429E-2</c:v>
+                  <c:v>0.93219002514906557</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.8859400854729969E-2</c:v>
+                  <c:v>0.93114059914527003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.6165073750357378E-2</c:v>
+                  <c:v>0.93383492624964259</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.5885455566564929E-2</c:v>
+                  <c:v>0.93411454443343511</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.7817608125323406E-2</c:v>
+                  <c:v>0.93218239187467655</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.7854326978427165E-2</c:v>
+                  <c:v>0.93214567302157281</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.7945453797305197E-2</c:v>
+                  <c:v>0.93205454620269479</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.795863220628609E-2</c:v>
+                  <c:v>0.93204136779371394</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.796479043502722E-2</c:v>
+                  <c:v>0.93203520956497277</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.8001142340463519E-2</c:v>
+                  <c:v>0.93199885765953649</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15756,6 +16063,186 @@
         <c:smooth val="0"/>
         <c:axId val="812057968"/>
         <c:axId val="951265984"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:v>sch/sent</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>data2!$V$4:$AM$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="18"/>
+                      <c:pt idx="0">
+                        <c:v>0.05</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.15</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.25</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.3</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.35</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.4</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.45</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.5</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.55</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0.6</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0.65</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0.7</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0.75</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0.8</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>0.85</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>0.9</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>data2!$C$24:$T$24</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="18"/>
+                      <c:pt idx="0">
+                        <c:v>0.68640083831848542</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.3455924093303015</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.22971176623460846</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.15830204752741134</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.1387653699937787</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.11409770284254221</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>9.8426594928769609E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>8.8874451526798098E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>7.751900387461956E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>7.2124581885494934E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>6.8064048722581191E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>6.7831619909225871E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>6.784893357629268E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>6.7881000699750241E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>6.7925694602296333E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>6.7915590239864335E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>6.7964522954151549E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>6.7980746017521146E-2</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-0C5A-450B-8F9C-E2584487E542}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
       </c:lineChart>
       <c:catAx>
         <c:axId val="812057968"/>
@@ -15764,6 +16251,70 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Target Load</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.43775754899175917"/>
+              <c:y val="0.94236431911259044"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -15781,7 +16332,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-2700000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -15828,6 +16379,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Utilization</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -15873,6 +16479,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.66181373927903908"/>
+          <c:y val="0.52644523721455405"/>
+          <c:w val="0.25566276612483901"/>
+          <c:h val="0.35233223664998931"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -24536,7 +25152,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>compare2!$B$22:$S$22</c15:sqref>
@@ -24719,7 +25335,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>compare2!$B$22:$S$22</c15:sqref>
@@ -24902,7 +25518,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>compare2!$B$22:$S$22</c15:sqref>
@@ -37869,16 +38485,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>142061</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>180161</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>67684</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>150158</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>188258</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>75304</xdr:rowOff>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -37943,16 +38559,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>51435</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>194310</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>59532</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>140970</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>202407</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>17145</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -38645,16 +39261,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>462642</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>136069</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>167639</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>176892</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -39029,7 +39645,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -49676,8 +50292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44774C8C-06BE-45C7-9E13-C71C99E8C12D}">
   <dimension ref="A1:T57"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40:T40"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z47" sqref="Z47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -52952,10 +53568,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7BF82DD-02D2-40D6-9859-9E8F6D9A4AF5}">
-  <dimension ref="A1:T58"/>
+  <dimension ref="A1:AM61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" topLeftCell="R7" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="AF17" sqref="AF17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -52963,17 +53579,17 @@
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -53031,8 +53647,62 @@
       <c r="T3">
         <v>0.89999997615799998</v>
       </c>
+      <c r="V3">
+        <v>5.0000000745099998E-2</v>
+      </c>
+      <c r="W3">
+        <v>9.9999994039499995E-2</v>
+      </c>
+      <c r="X3">
+        <v>0.149999991059</v>
+      </c>
+      <c r="Y3">
+        <v>0.19999998807899999</v>
+      </c>
+      <c r="Z3">
+        <v>0.24999998509900001</v>
+      </c>
+      <c r="AA3">
+        <v>0.29999998211899997</v>
+      </c>
+      <c r="AB3">
+        <v>0.34999999403999998</v>
+      </c>
+      <c r="AC3">
+        <v>0.39999997615799998</v>
+      </c>
+      <c r="AD3">
+        <v>0.44999998807899999</v>
+      </c>
+      <c r="AE3">
+        <v>0.5</v>
+      </c>
+      <c r="AF3">
+        <v>0.54999995231599996</v>
+      </c>
+      <c r="AG3">
+        <v>0.59999996423699997</v>
+      </c>
+      <c r="AH3">
+        <v>0.64999997615799998</v>
+      </c>
+      <c r="AI3">
+        <v>0.69999998807899999</v>
+      </c>
+      <c r="AJ3">
+        <v>0.74999994039499995</v>
+      </c>
+      <c r="AK3">
+        <v>0.79999995231599996</v>
+      </c>
+      <c r="AL3">
+        <v>0.84999996423699997</v>
+      </c>
+      <c r="AM3">
+        <v>0.89999997615799998</v>
+      </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -53090,8 +53760,79 @@
       <c r="T4">
         <v>4.1221452440000004</v>
       </c>
+      <c r="V4">
+        <v>0.05</v>
+      </c>
+      <c r="W4">
+        <f>V4+0.05</f>
+        <v>0.1</v>
+      </c>
+      <c r="X4">
+        <f t="shared" ref="X4:AM4" si="0">W4+0.05</f>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="Z4">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="AA4">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="AB4">
+        <f t="shared" si="0"/>
+        <v>0.35</v>
+      </c>
+      <c r="AC4">
+        <f t="shared" si="0"/>
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="AD4">
+        <f t="shared" si="0"/>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="AE4">
+        <f t="shared" si="0"/>
+        <v>0.49999999999999994</v>
+      </c>
+      <c r="AF4">
+        <f t="shared" si="0"/>
+        <v>0.54999999999999993</v>
+      </c>
+      <c r="AG4">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="AH4">
+        <f t="shared" si="0"/>
+        <v>0.65</v>
+      </c>
+      <c r="AI4">
+        <f t="shared" si="0"/>
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="AJ4">
+        <f t="shared" si="0"/>
+        <v>0.75000000000000011</v>
+      </c>
+      <c r="AK4">
+        <f t="shared" si="0"/>
+        <v>0.80000000000000016</v>
+      </c>
+      <c r="AL4">
+        <f t="shared" si="0"/>
+        <v>0.8500000000000002</v>
+      </c>
+      <c r="AM4">
+        <f t="shared" si="0"/>
+        <v>0.90000000000000024</v>
+      </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -53150,7 +53891,7 @@
         <v>0.94695696632299997</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -53209,7 +53950,7 @@
         <v>1.5151311461200001</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -53268,7 +54009,7 @@
         <v>0.911990807086</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -53327,7 +54068,7 @@
         <v>1470.88259296</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -53386,7 +54127,7 @@
         <v>1477.0164970000001</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -53445,7 +54186,7 @@
         <v>10481486.759</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -53504,7 +54245,7 @@
         <v>1472476</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -53563,7 +54304,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -53622,7 +54363,7 @@
         <v>469660</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -53681,7 +54422,7 @@
         <v>780698831</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -53740,7 +54481,7 @@
         <v>469919821</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -54221,71 +54962,71 @@
         <v>0.68640083831848542</v>
       </c>
       <c r="D24">
-        <f t="shared" ref="D24:T24" si="0">D23/D15</f>
+        <f t="shared" ref="D24:T24" si="1">D23/D15</f>
         <v>0.3455924093303015</v>
       </c>
       <c r="E24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.22971176623460846</v>
       </c>
       <c r="F24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.15830204752741134</v>
       </c>
       <c r="G24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.1387653699937787</v>
       </c>
       <c r="H24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.11409770284254221</v>
       </c>
       <c r="I24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.8426594928769609E-2</v>
       </c>
       <c r="J24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.8874451526798098E-2</v>
       </c>
       <c r="K24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.751900387461956E-2</v>
       </c>
       <c r="L24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.2124581885494934E-2</v>
       </c>
       <c r="M24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.8064048722581191E-2</v>
       </c>
       <c r="N24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.7831619909225871E-2</v>
       </c>
       <c r="O24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.784893357629268E-2</v>
       </c>
       <c r="P24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.7881000699750241E-2</v>
       </c>
       <c r="Q24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.7925694602296333E-2</v>
       </c>
       <c r="R24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.7915590239864335E-2</v>
       </c>
       <c r="S24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.7964522954151549E-2</v>
       </c>
       <c r="T24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.7980746017521146E-2</v>
       </c>
     </row>
@@ -54298,72 +55039,294 @@
         <v>0.31359916168151458</v>
       </c>
       <c r="D25">
-        <f t="shared" ref="D25:T25" si="1">1-D24</f>
+        <f t="shared" ref="D25:T25" si="2">1-D24</f>
         <v>0.65440759066969845</v>
       </c>
       <c r="E25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.77028823376539157</v>
       </c>
       <c r="F25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.84169795247258872</v>
       </c>
       <c r="G25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.86123463000622125</v>
       </c>
       <c r="H25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.88590229715745783</v>
       </c>
       <c r="I25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.9015734050712304</v>
       </c>
       <c r="J25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.91112554847320193</v>
       </c>
       <c r="K25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.92248099612538048</v>
       </c>
       <c r="L25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.92787541811450502</v>
       </c>
       <c r="M25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.93193595127741879</v>
       </c>
       <c r="N25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.93216838009077407</v>
       </c>
       <c r="O25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.93215106642370738</v>
       </c>
       <c r="P25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.93211899930024977</v>
       </c>
       <c r="Q25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.93207430539770364</v>
       </c>
       <c r="R25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.93208440976013562</v>
       </c>
       <c r="S25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.93203547704584844</v>
       </c>
       <c r="T25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.93201925398247887</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <f>C15/C14/62500000</f>
+        <v>1.60041299433827E-8</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ref="D26:T26" si="3">D15/D14/62500000</f>
+        <v>1.5957086594202115E-8</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="3"/>
+        <v>1.6043224384403985E-8</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="3"/>
+        <v>1.5852734086071668E-8</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="3"/>
+        <v>1.6017069531383323E-8</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="3"/>
+        <v>1.6061592239222093E-8</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="3"/>
+        <v>1.6041763708788375E-8</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="3"/>
+        <v>1.5986597742156934E-8</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="3"/>
+        <v>1.5896587860928868E-8</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="3"/>
+        <v>1.5471759118281779E-8</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="3"/>
+        <v>1.4867449309556285E-8</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="3"/>
+        <v>1.3864474348459403E-8</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="3"/>
+        <v>1.2321934479162171E-8</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="3"/>
+        <v>1.2024597999820157E-8</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="3"/>
+        <v>1.1427544821490747E-8</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="3"/>
+        <v>1.0612245056868793E-8</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="3"/>
+        <v>1.0084622155112003E-8</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="3"/>
+        <v>9.6307523944531179E-9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <f>1-C30</f>
+        <v>0.77495796629863378</v>
+      </c>
+      <c r="D28">
+        <f t="shared" ref="D28:T28" si="4">1-D30</f>
+        <v>0.38756263961030535</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="4"/>
+        <v>0.25827858121796066</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="4"/>
+        <v>0.19377288165244944</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="4"/>
+        <v>0.15498517366156939</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="4"/>
+        <v>0.12916446374856649</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="4"/>
+        <v>0.11070734084684808</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="4"/>
+        <v>9.6870004181571656E-2</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="4"/>
+        <v>8.6128522941035124E-2</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="4"/>
+        <v>7.7496771894949301E-2</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="4"/>
+        <v>7.0444941718689313E-2</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="4"/>
+        <v>6.7847309235933517E-2</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="4"/>
+        <v>6.7859986039761511E-2</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="4"/>
+        <v>6.7835570616660679E-2</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="4"/>
+        <v>6.7934340160993312E-2</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="4"/>
+        <v>6.7967079526971452E-2</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="4"/>
+        <v>6.7979300373354312E-2</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="4"/>
+        <v>6.8004244485763365E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <f>1-C31</f>
+        <v>0.88013985946934659</v>
+      </c>
+      <c r="D29">
+        <f t="shared" ref="D29:T29" si="5">1-D31</f>
+        <v>0.4354590088969672</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="5"/>
+        <v>0.28952413458929693</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="5"/>
+        <v>0.21465505872195023</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="5"/>
+        <v>0.14408597301308101</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="5"/>
+        <v>0.12483382700625889</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="5"/>
+        <v>0.10928218176208815</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="5"/>
+        <v>9.6904062258270196E-2</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="5"/>
+        <v>8.6525105151240123E-2</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="5"/>
+        <v>7.8881752144235207E-2</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="5"/>
+        <v>7.2573207190622657E-2</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="5"/>
+        <v>6.8219551898795694E-2</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="5"/>
+        <v>6.7822634393482129E-2</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="5"/>
+        <v>6.7875691820190931E-2</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="5"/>
+        <v>6.7918280076795678E-2</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="5"/>
+        <v>6.7972696492919038E-2</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="5"/>
+        <v>6.7976443556536981E-2</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="5"/>
+        <v>6.8012987373084588E-2</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
@@ -54371,58 +55334,58 @@
         <v>49</v>
       </c>
       <c r="C30">
-        <v>0.77495796629863378</v>
+        <v>0.22504203370136622</v>
       </c>
       <c r="D30">
-        <v>0.38756263961030529</v>
+        <v>0.61243736038969465</v>
       </c>
       <c r="E30">
-        <v>0.25827858121796066</v>
+        <v>0.74172141878203934</v>
       </c>
       <c r="F30">
-        <v>0.19377288165244946</v>
+        <v>0.80622711834755056</v>
       </c>
       <c r="G30">
-        <v>0.15498517366156936</v>
+        <v>0.84501482633843061</v>
       </c>
       <c r="H30">
-        <v>0.12916446374856652</v>
+        <v>0.87083553625143351</v>
       </c>
       <c r="I30">
-        <v>0.11070734084684812</v>
+        <v>0.88929265915315192</v>
       </c>
       <c r="J30">
-        <v>9.687000418157167E-2</v>
+        <v>0.90312999581842834</v>
       </c>
       <c r="K30">
-        <v>8.6128522941035082E-2</v>
+        <v>0.91387147705896488</v>
       </c>
       <c r="L30">
-        <v>7.7496771894949329E-2</v>
+        <v>0.9225032281050507</v>
       </c>
       <c r="M30">
-        <v>7.0444941718689272E-2</v>
+        <v>0.92955505828131069</v>
       </c>
       <c r="N30">
-        <v>6.7847309235933476E-2</v>
+        <v>0.93215269076406648</v>
       </c>
       <c r="O30">
-        <v>6.7859986039761552E-2</v>
+        <v>0.93214001396023849</v>
       </c>
       <c r="P30">
-        <v>6.7835570616660679E-2</v>
+        <v>0.93216442938333932</v>
       </c>
       <c r="Q30">
-        <v>6.7934340160993298E-2</v>
+        <v>0.93206565983900669</v>
       </c>
       <c r="R30">
-        <v>6.7967079526971438E-2</v>
+        <v>0.93203292047302855</v>
       </c>
       <c r="S30">
-        <v>6.797930037335434E-2</v>
+        <v>0.93202069962664569</v>
       </c>
       <c r="T30">
-        <v>6.800424448576331E-2</v>
+        <v>0.93199575551423663</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
@@ -54430,58 +55393,58 @@
         <v>50</v>
       </c>
       <c r="C31">
-        <v>0.88013985946934659</v>
+        <v>0.11986014053065341</v>
       </c>
       <c r="D31">
-        <v>0.43545900889696726</v>
+        <v>0.5645409911030328</v>
       </c>
       <c r="E31">
-        <v>0.28952413458929688</v>
+        <v>0.71047586541070307</v>
       </c>
       <c r="F31">
-        <v>0.2146550587219502</v>
+        <v>0.78534494127804977</v>
       </c>
       <c r="G31">
-        <v>0.14408597301308104</v>
+        <v>0.85591402698691899</v>
       </c>
       <c r="H31">
-        <v>0.12483382700625892</v>
+        <v>0.87516617299374111</v>
       </c>
       <c r="I31">
-        <v>0.1092821817620882</v>
+        <v>0.89071781823791185</v>
       </c>
       <c r="J31">
-        <v>9.6904062258270154E-2</v>
+        <v>0.9030959377417298</v>
       </c>
       <c r="K31">
-        <v>8.6525105151240164E-2</v>
+        <v>0.91347489484875988</v>
       </c>
       <c r="L31">
-        <v>7.888175214423522E-2</v>
+        <v>0.92111824785576479</v>
       </c>
       <c r="M31">
-        <v>7.2573207190622671E-2</v>
+        <v>0.92742679280937734</v>
       </c>
       <c r="N31">
-        <v>6.8219551898795652E-2</v>
+        <v>0.93178044810120431</v>
       </c>
       <c r="O31">
-        <v>6.7822634393482115E-2</v>
+        <v>0.93217736560651787</v>
       </c>
       <c r="P31">
-        <v>6.7875691820190917E-2</v>
+        <v>0.93212430817980907</v>
       </c>
       <c r="Q31">
-        <v>6.7918280076795637E-2</v>
+        <v>0.93208171992320432</v>
       </c>
       <c r="R31">
-        <v>6.797269649291908E-2</v>
+        <v>0.93202730350708096</v>
       </c>
       <c r="S31">
-        <v>6.7976443556537008E-2</v>
+        <v>0.93202355644346302</v>
       </c>
       <c r="T31">
-        <v>6.8012987373084643E-2</v>
+        <v>0.93198701262691541</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
@@ -55738,76 +56701,58 @@
         <v>57</v>
       </c>
       <c r="C56">
-        <f>C55/C47</f>
-        <v>9.4682087681538615E-2</v>
+        <v>0.90531791231846137</v>
       </c>
       <c r="D56">
-        <f t="shared" ref="D56:T56" si="2">D55/D47</f>
-        <v>7.3919373731738042E-2</v>
+        <v>0.92608062626826193</v>
       </c>
       <c r="E56">
-        <f t="shared" si="2"/>
-        <v>7.3630700319795406E-2</v>
+        <v>0.92636929968020465</v>
       </c>
       <c r="F56">
-        <f t="shared" si="2"/>
-        <v>7.100378850199901E-2</v>
+        <v>0.92899621149800105</v>
       </c>
       <c r="G56">
-        <f t="shared" si="2"/>
-        <v>7.2445654657672262E-2</v>
+        <v>0.92755434534232772</v>
       </c>
       <c r="H56">
-        <f t="shared" si="2"/>
-        <v>7.0608521642019154E-2</v>
+        <v>0.92939147835798086</v>
       </c>
       <c r="I56">
-        <f t="shared" si="2"/>
-        <v>6.4714557533561798E-2</v>
+        <v>0.93528544246643819</v>
       </c>
       <c r="J56">
-        <f t="shared" si="2"/>
-        <v>6.4401813621263987E-2</v>
+        <v>0.93559818637873604</v>
       </c>
       <c r="K56">
-        <f t="shared" si="2"/>
-        <v>6.3698637629296395E-2</v>
+        <v>0.9363013623707036</v>
       </c>
       <c r="L56">
-        <f t="shared" si="2"/>
-        <v>6.3943152139054008E-2</v>
+        <v>0.93605684786094601</v>
       </c>
       <c r="M56">
-        <f t="shared" si="2"/>
-        <v>6.8737463417570532E-2</v>
+        <v>0.93126253658242941</v>
       </c>
       <c r="N56">
-        <f t="shared" si="2"/>
-        <v>6.7807417597854719E-2</v>
+        <v>0.93219258240214531</v>
       </c>
       <c r="O56">
-        <f t="shared" si="2"/>
-        <v>6.7838671604109238E-2</v>
+        <v>0.93216132839589072</v>
       </c>
       <c r="P56">
-        <f t="shared" si="2"/>
-        <v>6.7928160218587538E-2</v>
+        <v>0.9320718397814125</v>
       </c>
       <c r="Q56">
-        <f t="shared" si="2"/>
-        <v>6.7952647614567097E-2</v>
+        <v>0.9320473523854329</v>
       </c>
       <c r="R56">
-        <f t="shared" si="2"/>
-        <v>6.7956548759472199E-2</v>
+        <v>0.93204345124052779</v>
       </c>
       <c r="S56">
-        <f t="shared" si="2"/>
-        <v>6.7948695788993541E-2</v>
+        <v>0.93205130421100646</v>
       </c>
       <c r="T56">
-        <f t="shared" si="2"/>
-        <v>6.7971819210626866E-2</v>
+        <v>0.93202818078937311</v>
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
@@ -55815,58 +56760,58 @@
         <v>49</v>
       </c>
       <c r="C57">
-        <v>0.10172276825182669</v>
+        <v>0.89827723174817331</v>
       </c>
       <c r="D57">
-        <v>8.3235551238595537E-2</v>
+        <v>0.9167644487614045</v>
       </c>
       <c r="E57">
-        <v>7.6992727816123097E-2</v>
+        <v>0.9230072721838769</v>
       </c>
       <c r="F57">
-        <v>7.3868911826053332E-2</v>
+        <v>0.92613108817394663</v>
       </c>
       <c r="G57">
-        <v>7.204461402839045E-2</v>
+        <v>0.92795538597160954</v>
       </c>
       <c r="H57">
-        <v>7.0800568916731782E-2</v>
+        <v>0.92919943108326819</v>
       </c>
       <c r="I57">
-        <v>6.9841415313355595E-2</v>
+        <v>0.93015858468664436</v>
       </c>
       <c r="J57">
-        <v>6.9045106968931083E-2</v>
+        <v>0.93095489303106893</v>
       </c>
       <c r="K57">
-        <v>6.8480673161861072E-2</v>
+        <v>0.93151932683813898</v>
       </c>
       <c r="L57">
-        <v>6.7853272103957557E-2</v>
+        <v>0.93214672789604247</v>
       </c>
       <c r="M57">
-        <v>6.6967117264425211E-2</v>
+        <v>0.93303288273557483</v>
       </c>
       <c r="N57">
-        <v>6.7808364329648624E-2</v>
+        <v>0.93219163567035135</v>
       </c>
       <c r="O57">
-        <v>6.7840439581297693E-2</v>
+        <v>0.93215956041870229</v>
       </c>
       <c r="P57">
-        <v>6.7841977809870585E-2</v>
+        <v>0.93215802219012944</v>
       </c>
       <c r="Q57">
-        <v>6.7940972826379897E-2</v>
+        <v>0.9320590271736201</v>
       </c>
       <c r="R57">
-        <v>6.7976501656284924E-2</v>
+        <v>0.93202349834371512</v>
       </c>
       <c r="S57">
-        <v>6.7978467590494751E-2</v>
+        <v>0.93202153240950525</v>
       </c>
       <c r="T57">
-        <v>6.7973862590317888E-2</v>
+        <v>0.9320261374096821</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
@@ -55874,58 +56819,280 @@
         <v>50</v>
       </c>
       <c r="C58">
-        <v>0.10616933479292211</v>
+        <v>0.89383066520707788</v>
       </c>
       <c r="D58">
-        <v>8.4817906253920189E-2</v>
+        <v>0.91518209374607984</v>
       </c>
       <c r="E58">
-        <v>7.7979443370946214E-2</v>
+        <v>0.9220205566290538</v>
       </c>
       <c r="F58">
-        <v>7.4023642913717907E-2</v>
+        <v>0.92597635708628212</v>
       </c>
       <c r="G58">
-        <v>6.9820062960827184E-2</v>
+        <v>0.93017993703917279</v>
       </c>
       <c r="H58">
-        <v>7.0328377140888673E-2</v>
+        <v>0.92967162285911131</v>
       </c>
       <c r="I58">
-        <v>7.0691536212865697E-2</v>
+        <v>0.92930846378713428</v>
       </c>
       <c r="J58">
-        <v>6.8648042858172303E-2</v>
+        <v>0.93135195714182772</v>
       </c>
       <c r="K58">
+        <v>0.93219002514906557</v>
+      </c>
+      <c r="L58">
+        <v>0.93114059914527003</v>
+      </c>
+      <c r="M58">
+        <v>0.93383492624964259</v>
+      </c>
+      <c r="N58">
+        <v>0.93411454443343511</v>
+      </c>
+      <c r="O58">
+        <v>0.93218239187467655</v>
+      </c>
+      <c r="P58">
+        <v>0.93214567302157281</v>
+      </c>
+      <c r="Q58">
+        <v>0.93205454620269479</v>
+      </c>
+      <c r="R58">
+        <v>0.93204136779371394</v>
+      </c>
+      <c r="S58">
+        <v>0.93203520956497277</v>
+      </c>
+      <c r="T58">
+        <v>0.93199885765953649</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <f>1-C56</f>
+        <v>9.4682087681538629E-2</v>
+      </c>
+      <c r="D59">
+        <f t="shared" ref="D59:T59" si="6">1-D56</f>
+        <v>7.3919373731738069E-2</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="6"/>
+        <v>7.363070031979535E-2</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="6"/>
+        <v>7.1003788501998955E-2</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="6"/>
+        <v>7.2445654657672276E-2</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="6"/>
+        <v>7.060852164201914E-2</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="6"/>
+        <v>6.4714557533561812E-2</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="6"/>
+        <v>6.4401813621263959E-2</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="6"/>
+        <v>6.3698637629296395E-2</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="6"/>
+        <v>6.3943152139053994E-2</v>
+      </c>
+      <c r="M59">
+        <f t="shared" si="6"/>
+        <v>6.8737463417570588E-2</v>
+      </c>
+      <c r="N59">
+        <f t="shared" si="6"/>
+        <v>6.7807417597854691E-2</v>
+      </c>
+      <c r="O59">
+        <f t="shared" si="6"/>
+        <v>6.783867160410928E-2</v>
+      </c>
+      <c r="P59">
+        <f t="shared" si="6"/>
+        <v>6.7928160218587497E-2</v>
+      </c>
+      <c r="Q59">
+        <f t="shared" si="6"/>
+        <v>6.7952647614567097E-2</v>
+      </c>
+      <c r="R59">
+        <f t="shared" si="6"/>
+        <v>6.7956548759472213E-2</v>
+      </c>
+      <c r="S59">
+        <f t="shared" si="6"/>
+        <v>6.7948695788993541E-2</v>
+      </c>
+      <c r="T59">
+        <f t="shared" si="6"/>
+        <v>6.7971819210626894E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C60">
+        <f t="shared" ref="C60:T60" si="7">1-C57</f>
+        <v>0.10172276825182669</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="7"/>
+        <v>8.3235551238595495E-2</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="7"/>
+        <v>7.6992727816123097E-2</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="7"/>
+        <v>7.3868911826053374E-2</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="7"/>
+        <v>7.2044614028390463E-2</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="7"/>
+        <v>7.080056891673181E-2</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="7"/>
+        <v>6.9841415313355637E-2</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="7"/>
+        <v>6.9045106968931069E-2</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="7"/>
+        <v>6.8480673161861016E-2</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="7"/>
+        <v>6.7853272103957529E-2</v>
+      </c>
+      <c r="M60">
+        <f t="shared" si="7"/>
+        <v>6.6967117264425169E-2</v>
+      </c>
+      <c r="N60">
+        <f t="shared" si="7"/>
+        <v>6.7808364329648652E-2</v>
+      </c>
+      <c r="O60">
+        <f t="shared" si="7"/>
+        <v>6.7840439581297707E-2</v>
+      </c>
+      <c r="P60">
+        <f t="shared" si="7"/>
+        <v>6.7841977809870557E-2</v>
+      </c>
+      <c r="Q60">
+        <f t="shared" si="7"/>
+        <v>6.7940972826379897E-2</v>
+      </c>
+      <c r="R60">
+        <f t="shared" si="7"/>
+        <v>6.7976501656284882E-2</v>
+      </c>
+      <c r="S60">
+        <f t="shared" si="7"/>
+        <v>6.7978467590494751E-2</v>
+      </c>
+      <c r="T60">
+        <f t="shared" si="7"/>
+        <v>6.7973862590317902E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C61">
+        <f t="shared" ref="C61:T61" si="8">1-C58</f>
+        <v>0.10616933479292212</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="8"/>
+        <v>8.4817906253920161E-2</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="8"/>
+        <v>7.79794433709462E-2</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="8"/>
+        <v>7.402364291371788E-2</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="8"/>
+        <v>6.9820062960827212E-2</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="8"/>
+        <v>7.0328377140888687E-2</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="8"/>
+        <v>7.0691536212865724E-2</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="8"/>
+        <v>6.8648042858172276E-2</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="8"/>
         <v>6.7809974850934429E-2</v>
       </c>
-      <c r="L58">
+      <c r="L61">
+        <f t="shared" si="8"/>
         <v>6.8859400854729969E-2</v>
       </c>
-      <c r="M58">
-        <v>6.6165073750357378E-2</v>
-      </c>
-      <c r="N58">
-        <v>6.5885455566564929E-2</v>
-      </c>
-      <c r="O58">
-        <v>6.7817608125323406E-2</v>
-      </c>
-      <c r="P58">
-        <v>6.7854326978427165E-2</v>
-      </c>
-      <c r="Q58">
-        <v>6.7945453797305197E-2</v>
-      </c>
-      <c r="R58">
-        <v>6.795863220628609E-2</v>
-      </c>
-      <c r="S58">
-        <v>6.796479043502722E-2</v>
-      </c>
-      <c r="T58">
-        <v>6.8001142340463519E-2</v>
+      <c r="M61">
+        <f t="shared" si="8"/>
+        <v>6.6165073750357406E-2</v>
+      </c>
+      <c r="N61">
+        <f t="shared" si="8"/>
+        <v>6.5885455566564888E-2</v>
+      </c>
+      <c r="O61">
+        <f t="shared" si="8"/>
+        <v>6.7817608125323448E-2</v>
+      </c>
+      <c r="P61">
+        <f t="shared" si="8"/>
+        <v>6.7854326978427193E-2</v>
+      </c>
+      <c r="Q61">
+        <f t="shared" si="8"/>
+        <v>6.7945453797305211E-2</v>
+      </c>
+      <c r="R61">
+        <f t="shared" si="8"/>
+        <v>6.7958632206286063E-2</v>
+      </c>
+      <c r="S61">
+        <f t="shared" si="8"/>
+        <v>6.7964790435027234E-2</v>
+      </c>
+      <c r="T61">
+        <f t="shared" si="8"/>
+        <v>6.8001142340463505E-2</v>
       </c>
     </row>
   </sheetData>
